--- a/gameserver/src/main/resources/xlxs/DictItem.xlsx
+++ b/gameserver/src/main/resources/xlxs/DictItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22931" windowHeight="10524"/>
+    <workbookView windowWidth="21636" windowHeight="6732"/>
   </bookViews>
   <sheets>
     <sheet name="DictItem" sheetId="1" r:id="rId1"/>
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,8 +140,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,10 +246,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,74 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -240,45 +269,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,43 +293,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,19 +437,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,103 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +502,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,15 +522,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,8 +559,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,8 +1058,8 @@
   <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>

--- a/gameserver/src/main/resources/xlxs/DictItem.xlsx
+++ b/gameserver/src/main/resources/xlxs/DictItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21636" windowHeight="6732"/>
+    <workbookView windowWidth="23028" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="DictItem" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -34,13 +34,7 @@
     <t>是否堆叠(0 不可堆叠 &gt;0最大堆叠数量)</t>
   </si>
   <si>
-    <t>道具效果（索引到效果表）</t>
-  </si>
-  <si>
-    <t>装备索引(如果是装备 索引到装备)</t>
-  </si>
-  <si>
-    <t>限制 根据类型索引到限制表</t>
+    <t>附加表ID（装备到装备表 其余到其他表）</t>
   </si>
   <si>
     <t>描述</t>
@@ -64,13 +58,7 @@
     <t>overlay</t>
   </si>
   <si>
-    <t>effectId</t>
-  </si>
-  <si>
-    <t>equipId</t>
-  </si>
-  <si>
-    <t>limit</t>
+    <t>attachId</t>
   </si>
   <si>
     <t>description</t>
@@ -126,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -147,6 +135,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -154,6 +158,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -161,6 +173,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -168,80 +232,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,6 +248,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -260,29 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -293,25 +281,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,19 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,115 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,30 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,9 +522,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,17 +572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -592,145 +580,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -794,6 +782,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1049,33 +1042,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3.66666666666667" customWidth="1"/>
     <col min="2" max="3" width="16.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="8.66666666666667" customWidth="1"/>
     <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
     <col min="6" max="6" width="41.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="27.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="29.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="16.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="43.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="16.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,51 +1090,39 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1159,18 +1137,16 @@
         <v>99</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1185,18 +1161,16 @@
         <v>99</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1210,21 +1184,19 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1238,21 +1210,19 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1266,21 +1236,19 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1294,21 +1262,19 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1322,21 +1288,19 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1350,21 +1314,19 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
+      <c r="G10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1378,21 +1340,19 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1406,21 +1366,19 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
+      <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1434,21 +1392,19 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+      <c r="G13" s="1">
         <v>11</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1462,21 +1418,19 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
+      <c r="G14" s="1">
         <v>12</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1490,21 +1444,19 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
+      <c r="G15" s="1">
         <v>13</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1518,21 +1470,19 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
+      <c r="G16" s="1">
         <v>14</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1546,13 +1496,11 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
+      <c r="G17" s="1">
         <v>15</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>34</v>
+      <c r="H17" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
